--- a/work2/100_jinmeng.xlsx
+++ b/work2/100_jinmeng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jinmeng\01_work相互参照表\plottype\work2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EC30D0-A8BA-4984-B8B1-8E0FEBE2A180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E506F23F-2DE1-47BB-8046-E634E735977E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="235" windowWidth="17575" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title" sheetId="3" r:id="rId1"/>
